--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed1/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.418</v>
+        <v>12.77369999999999</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.667299999999996</v>
+        <v>5.624199999999995</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.13609999999998</v>
+        <v>-14.06789999999998</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.2725</v>
+        <v>13.3903</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.4964</v>
+        <v>-14.77270000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,10 +533,10 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>8.628800000000009</v>
+        <v>8.880400000000007</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.3556</v>
+        <v>-11.2562</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.465999999999992</v>
+        <v>5.383599999999993</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.151099999999992</v>
+        <v>5.144199999999994</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.6133</v>
+        <v>-12.4887</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.88410000000001</v>
+        <v>13.66420000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3098</v>
+        <v>13.2617</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>12.88740000000001</v>
+        <v>13.70480000000001</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.783800000000008</v>
+        <v>9.011100000000006</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.15180000000001</v>
+        <v>-12.1858</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.7298</v>
+        <v>12.6617</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.703399999999997</v>
+        <v>5.587799999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.624799999999991</v>
+        <v>5.538499999999992</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.12809999999999</v>
+        <v>-10.90969999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.85220000000001</v>
+        <v>13.07320000000001</v>
       </c>
     </row>
   </sheetData>
